--- a/Sheets/Mass Budget.xlsx
+++ b/Sheets/Mass Budget.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Zack/Documents/Stanford/AA236/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB12FDA-254A-AB4C-8F49-9F5A72BA29D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF1CDB2-4560-B549-A6A4-F5650A8963E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{7135F169-8BA2-0743-B0F1-293FD129F8E1}"/>
+    <workbookView xWindow="-1060" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{7135F169-8BA2-0743-B0F1-293FD129F8E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Solar Panels</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Margin for stuff</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -472,7 +475,8 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>0.155</v>
+        <f>0.155*4</f>
+        <v>0.62</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -582,10 +586,21 @@
         <v>15</v>
       </c>
       <c r="D14">
-        <f>4.593-SUM(D3:D13)</f>
-        <v>1.544</v>
+        <f>4.693-SUM(D3:D13)-D15</f>
+        <v>1.0789999999999997</v>
       </c>
       <c r="E14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>0.1</v>
+      </c>
+      <c r="E15" t="s">
         <v>2</v>
       </c>
     </row>
@@ -594,8 +609,8 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <f>SUM(D3:D14)</f>
-        <v>4.593</v>
+        <f>SUM(D3:D15)</f>
+        <v>4.6929999999999996</v>
       </c>
     </row>
   </sheetData>
